--- a/out_data/results/DNN/locationResult/時間別.xlsx
+++ b/out_data/results/DNN/locationResult/時間別.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyun\Documents\git\lab\out_data\results\DNN\locationResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyuno\Documents\puro\lab\out_data\results\DNN\locationResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{582069DF-3759-4C2B-A790-D55ECD91976F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1047200-C99C-4FD4-B03F-4268DF4F3246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E0A1F76-5F57-4C68-9BFE-726809492817}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{1E0A1F76-5F57-4C68-9BFE-726809492817}"/>
   </bookViews>
   <sheets>
     <sheet name="時間別" sheetId="1" r:id="rId1"/>
@@ -148,20 +148,20 @@
     <t>上位30個_lag=3</t>
   </si>
   <si>
-    <t>下位上位20個_lag=1</t>
+    <t>ベンチマーク_lag=3</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>下位上位20個</t>
+    <t>高低上位20個_lag=1</t>
   </si>
   <si>
-    <t>下位上位20個_lag=2</t>
+    <t>高低上位20個</t>
   </si>
   <si>
-    <t>下位上位20個_lag=3</t>
+    <t>高低上位20個_lag=2</t>
   </si>
   <si>
-    <t>ベンチマーク_lag=3</t>
-    <phoneticPr fontId="18"/>
+    <t>高低上位20個_lag=3</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -764,17 +764,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,26 +1153,26 @@
   <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:F145"/>
+      <selection sqref="A1:F139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" customWidth="1"/>
-    <col min="2" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1214,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1255,89 +1252,89 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>35.779816510000003</v>
+        <v>62.385321099999999</v>
       </c>
       <c r="C3" s="2">
-        <v>79.591836729999997</v>
+        <v>89.473684210000002</v>
       </c>
       <c r="D3" s="2">
-        <v>49.367088610000003</v>
+        <v>73.513513509999996</v>
       </c>
       <c r="E3" s="2">
-        <v>8.0907165429999992</v>
+        <v>4.7647201089999998</v>
       </c>
       <c r="F3" s="2">
-        <v>24.658063909999999</v>
+        <v>14.97932694</v>
       </c>
       <c r="G3" s="1">
         <v>109</v>
       </c>
       <c r="H3" s="1">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I3" s="1">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
-        <v>43.119266060000001</v>
+        <v>86.238532109999994</v>
       </c>
       <c r="C4" s="2">
-        <v>62.666666669999998</v>
+        <v>72.307692309999993</v>
       </c>
       <c r="D4" s="2">
-        <v>51.086956520000001</v>
+        <v>78.661087870000003</v>
       </c>
       <c r="E4" s="2">
-        <v>9.8565804890000006</v>
+        <v>5.1880214799999997</v>
       </c>
       <c r="F4" s="2">
-        <v>26.070580270000001</v>
+        <v>13.98020945</v>
       </c>
       <c r="G4" s="1">
         <v>109</v>
       </c>
       <c r="H4" s="1">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I4" s="1">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="J4" s="1">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="K4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,89 +1375,89 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>66.115702479999996</v>
+        <v>72.727272729999996</v>
       </c>
       <c r="C6" s="2">
-        <v>76.92307692</v>
+        <v>87.128712870000001</v>
       </c>
       <c r="D6" s="2">
-        <v>71.111111109999996</v>
+        <v>79.279279279999997</v>
       </c>
       <c r="E6" s="2">
-        <v>7.4541511910000002</v>
+        <v>4.4572410680000001</v>
       </c>
       <c r="F6" s="2">
-        <v>13.08103058</v>
+        <v>8.5450370850000006</v>
       </c>
       <c r="G6" s="1">
         <v>121</v>
       </c>
       <c r="H6" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
-        <v>64.462809919999998</v>
+        <v>76.033057850000006</v>
       </c>
       <c r="C7" s="2">
-        <v>59.090909089999997</v>
+        <v>79.310344830000005</v>
       </c>
       <c r="D7" s="2">
-        <v>61.66007905</v>
+        <v>77.637130799999994</v>
       </c>
       <c r="E7" s="2">
-        <v>10.4096572</v>
+        <v>4.3254005109999998</v>
       </c>
       <c r="F7" s="2">
-        <v>15.399214600000001</v>
+        <v>8.0892674309999997</v>
       </c>
       <c r="G7" s="1">
         <v>121</v>
       </c>
       <c r="H7" s="1">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I7" s="1">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J7" s="1">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1542,7 +1539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +1826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1911,7 +1908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1993,7 +1990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -2157,7 +2154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2239,118 +2236,118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>42.857142860000003</v>
+        <v>58.730158729999999</v>
       </c>
       <c r="C27" s="2">
-        <v>75</v>
+        <v>88.095238100000003</v>
       </c>
       <c r="D27" s="2">
-        <v>54.545454550000002</v>
+        <v>70.47619048</v>
       </c>
       <c r="E27" s="2">
-        <v>6.9251953000000004</v>
+        <v>4.4285166089999999</v>
       </c>
       <c r="F27" s="2">
-        <v>15.99445504</v>
+        <v>11.55924203</v>
       </c>
       <c r="G27" s="1">
         <v>126</v>
       </c>
       <c r="H27" s="1">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J27" s="1">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="K27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>40.47619048</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
-        <v>69.863013699999996</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2">
-        <v>51.25628141</v>
+        <v>64.285714290000001</v>
       </c>
       <c r="E28" s="2">
-        <v>8.8850489320000001</v>
+        <v>4.8801835640000002</v>
       </c>
       <c r="F28" s="2">
-        <v>19.221904049999999</v>
+        <v>12.915887100000001</v>
       </c>
       <c r="G28" s="1">
         <v>126</v>
       </c>
       <c r="H28" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I28" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J28" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>62.385321099999999</v>
+        <v>75.229357800000002</v>
       </c>
       <c r="C29" s="2">
-        <v>89.473684210000002</v>
+        <v>84.536082469999997</v>
       </c>
       <c r="D29" s="2">
-        <v>73.513513509999996</v>
+        <v>79.611650490000002</v>
       </c>
       <c r="E29" s="2">
-        <v>4.7647201089999998</v>
+        <v>4.8755189149999998</v>
       </c>
       <c r="F29" s="2">
-        <v>14.97932694</v>
+        <v>14.60489419</v>
       </c>
       <c r="G29" s="1">
         <v>109</v>
       </c>
       <c r="H29" s="1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I29" s="1">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="J29" s="1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2359,121 +2356,121 @@
         <v>13</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>46.788990830000003</v>
+        <v>71.559633030000001</v>
       </c>
       <c r="C30" s="2">
-        <v>73.913043479999999</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2">
-        <v>57.303370790000002</v>
+        <v>74.641148329999993</v>
       </c>
       <c r="E30" s="2">
-        <v>7.4435786999999998</v>
+        <v>5.0137144930000002</v>
       </c>
       <c r="F30" s="2">
-        <v>21.50721738</v>
+        <v>14.208478919999999</v>
       </c>
       <c r="G30" s="1">
         <v>109</v>
       </c>
       <c r="H30" s="1">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I30" s="1">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J30" s="1">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="K30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
-        <v>41.284403670000003</v>
+        <v>82.568807340000006</v>
       </c>
       <c r="C31" s="2">
-        <v>67.164179099999998</v>
+        <v>76.92307692</v>
       </c>
       <c r="D31" s="2">
-        <v>51.136363639999999</v>
+        <v>79.646017700000002</v>
       </c>
       <c r="E31" s="2">
-        <v>9.3530480970000003</v>
+        <v>4.8301917760000004</v>
       </c>
       <c r="F31" s="2">
-        <v>24.626063080000002</v>
+        <v>13.10317184</v>
       </c>
       <c r="G31" s="1">
         <v>109</v>
       </c>
       <c r="H31" s="1">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I31" s="1">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="J31" s="1">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="K31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>72.727272729999996</v>
+        <v>68.595041320000007</v>
       </c>
       <c r="C32" s="2">
-        <v>87.128712870000001</v>
+        <v>88.297872339999998</v>
       </c>
       <c r="D32" s="2">
-        <v>79.279279279999997</v>
+        <v>77.20930233</v>
       </c>
       <c r="E32" s="2">
-        <v>4.4572410680000001</v>
+        <v>4.5250899929999999</v>
       </c>
       <c r="F32" s="2">
-        <v>8.5450370850000006</v>
+        <v>9.6127108270000008</v>
       </c>
       <c r="G32" s="1">
         <v>121</v>
       </c>
       <c r="H32" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I32" s="1">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J32" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
@@ -2482,92 +2479,92 @@
         <v>17</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>49.586776860000001</v>
+        <v>84.297520660000004</v>
       </c>
       <c r="C33" s="2">
-        <v>93.75</v>
+        <v>70.833333330000002</v>
       </c>
       <c r="D33" s="2">
-        <v>64.864864859999997</v>
+        <v>76.981132079999995</v>
       </c>
       <c r="E33" s="2">
-        <v>7.1549039580000002</v>
+        <v>4.8226745429999998</v>
       </c>
       <c r="F33" s="2">
-        <v>14.49873848</v>
+        <v>9.1679357170000007</v>
       </c>
       <c r="G33" s="1">
         <v>121</v>
       </c>
       <c r="H33" s="1">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="I33" s="1">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="J33" s="1">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="K33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
-        <v>30.578512400000001</v>
+        <v>74.380165289999994</v>
       </c>
       <c r="C34" s="2">
-        <v>94.871794870000002</v>
+        <v>84.112149529999996</v>
       </c>
       <c r="D34" s="2">
-        <v>46.25</v>
+        <v>78.947368420000004</v>
       </c>
       <c r="E34" s="2">
-        <v>9.3500369439999993</v>
+        <v>4.2932352140000001</v>
       </c>
       <c r="F34" s="2">
-        <v>20.899671089999998</v>
+        <v>8.3813226140000001</v>
       </c>
       <c r="G34" s="1">
         <v>121</v>
       </c>
       <c r="H34" s="1">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="I34" s="1">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="J34" s="1">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="K34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2608,7 +2605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2649,9 +2646,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
         <v>60.194174760000003</v>
@@ -2687,10 +2684,10 @@
         <v>18</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -2731,7 +2728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -2772,7 +2769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -2813,7 +2810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -2895,7 +2892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -2936,7 +2933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -3059,7 +3056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -3100,7 +3097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -3141,7 +3138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -3182,7 +3179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -3223,7 +3220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -3305,36 +3302,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B53" s="2">
-        <v>58.730158729999999</v>
+        <v>87.301587299999994</v>
       </c>
       <c r="C53" s="2">
-        <v>88.095238100000003</v>
+        <v>74.324324320000002</v>
       </c>
       <c r="D53" s="2">
-        <v>70.47619048</v>
+        <v>80.291970800000001</v>
       </c>
       <c r="E53" s="2">
-        <v>4.4285166089999999</v>
+        <v>4.2891896640000002</v>
       </c>
       <c r="F53" s="2">
-        <v>11.55924203</v>
+        <v>8.9952381219999999</v>
       </c>
       <c r="G53" s="1">
         <v>126</v>
       </c>
       <c r="H53" s="1">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="I53" s="1">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="J53" s="1">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
@@ -3343,162 +3340,162 @@
         <v>24</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B54" s="2">
-        <v>48.412698409999997</v>
+        <v>76.984126979999999</v>
       </c>
       <c r="C54" s="2">
-        <v>68.539325840000004</v>
+        <v>80.833333330000002</v>
       </c>
       <c r="D54" s="2">
-        <v>56.744186050000003</v>
+        <v>78.861788619999999</v>
       </c>
       <c r="E54" s="2">
-        <v>6.6937061570000003</v>
+        <v>4.1637488530000004</v>
       </c>
       <c r="F54" s="2">
-        <v>15.686442939999999</v>
+        <v>9.0495233529999997</v>
       </c>
       <c r="G54" s="1">
         <v>126</v>
       </c>
       <c r="H54" s="1">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="I54" s="1">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="J54" s="1">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B55" s="2">
-        <v>32.539682540000001</v>
+        <v>69.047619049999994</v>
       </c>
       <c r="C55" s="2">
-        <v>68.333333330000002</v>
+        <v>89.69072165</v>
       </c>
       <c r="D55" s="2">
-        <v>44.086021510000002</v>
+        <v>78.026905830000004</v>
       </c>
       <c r="E55" s="2">
-        <v>8.5763203669999992</v>
+        <v>3.8166286600000001</v>
       </c>
       <c r="F55" s="2">
-        <v>21.491817820000001</v>
+        <v>9.9408900179999993</v>
       </c>
       <c r="G55" s="1">
         <v>126</v>
       </c>
       <c r="H55" s="1">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I55" s="1">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="J55" s="1">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="K55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B56" s="2">
-        <v>86.238532109999994</v>
+        <v>35.779816510000003</v>
       </c>
       <c r="C56" s="2">
-        <v>72.307692309999993</v>
+        <v>79.591836729999997</v>
       </c>
       <c r="D56" s="2">
-        <v>78.661087870000003</v>
+        <v>49.367088610000003</v>
       </c>
       <c r="E56" s="2">
-        <v>5.1880214799999997</v>
+        <v>8.0907165429999992</v>
       </c>
       <c r="F56" s="2">
-        <v>13.98020945</v>
+        <v>24.658063909999999</v>
       </c>
       <c r="G56" s="1">
         <v>109</v>
       </c>
       <c r="H56" s="1">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I56" s="1">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="J56" s="1">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2">
-        <v>42.201834859999998</v>
+        <v>46.788990830000003</v>
       </c>
       <c r="C57" s="2">
-        <v>76.666666669999998</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="D57" s="2">
-        <v>54.437869820000003</v>
+        <v>57.303370790000002</v>
       </c>
       <c r="E57" s="2">
-        <v>7.8974709020000002</v>
+        <v>7.4435786999999998</v>
       </c>
       <c r="F57" s="2">
-        <v>24.301021599999999</v>
+        <v>21.50721738</v>
       </c>
       <c r="G57" s="1">
         <v>109</v>
       </c>
       <c r="H57" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I57" s="1">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J57" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K57" s="1">
         <v>2</v>
@@ -3507,42 +3504,42 @@
         <v>13</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="2">
-        <v>39.449541279999998</v>
+        <v>42.201834859999998</v>
       </c>
       <c r="C58" s="2">
-        <v>66.153846150000007</v>
+        <v>76.666666669999998</v>
       </c>
       <c r="D58" s="2">
-        <v>49.425287359999999</v>
+        <v>54.437869820000003</v>
       </c>
       <c r="E58" s="2">
-        <v>9.6641297880000003</v>
+        <v>7.8974709020000002</v>
       </c>
       <c r="F58" s="2">
-        <v>27.09964579</v>
+        <v>24.301021599999999</v>
       </c>
       <c r="G58" s="1">
         <v>109</v>
       </c>
       <c r="H58" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I58" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J58" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>13</v>
@@ -3551,77 +3548,77 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B59" s="2">
-        <v>76.033057850000006</v>
+        <v>66.115702479999996</v>
       </c>
       <c r="C59" s="2">
-        <v>79.310344830000005</v>
+        <v>76.92307692</v>
       </c>
       <c r="D59" s="2">
-        <v>77.637130799999994</v>
+        <v>71.111111109999996</v>
       </c>
       <c r="E59" s="2">
-        <v>4.3254005109999998</v>
+        <v>7.4541511910000002</v>
       </c>
       <c r="F59" s="2">
-        <v>8.0892674309999997</v>
+        <v>13.08103058</v>
       </c>
       <c r="G59" s="1">
         <v>121</v>
       </c>
       <c r="H59" s="1">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I59" s="1">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J59" s="1">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B60" s="2">
-        <v>72.727272729999996</v>
+        <v>49.586776860000001</v>
       </c>
       <c r="C60" s="2">
-        <v>65.671641789999995</v>
+        <v>93.75</v>
       </c>
       <c r="D60" s="2">
-        <v>69.019607840000006</v>
+        <v>64.864864859999997</v>
       </c>
       <c r="E60" s="2">
-        <v>7.8468438579999997</v>
+        <v>7.1549039580000002</v>
       </c>
       <c r="F60" s="2">
-        <v>10.975691039999999</v>
+        <v>14.49873848</v>
       </c>
       <c r="G60" s="1">
         <v>121</v>
       </c>
       <c r="H60" s="1">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I60" s="1">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="J60" s="1">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
@@ -3630,42 +3627,42 @@
         <v>17</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="2">
-        <v>57.851239669999998</v>
+        <v>72.727272729999996</v>
       </c>
       <c r="C61" s="2">
-        <v>79.545454550000002</v>
+        <v>65.671641789999995</v>
       </c>
       <c r="D61" s="2">
-        <v>66.985645930000004</v>
+        <v>69.019607840000006</v>
       </c>
       <c r="E61" s="2">
-        <v>9.4139610289999993</v>
+        <v>7.8468438579999997</v>
       </c>
       <c r="F61" s="2">
-        <v>14.178018160000001</v>
+        <v>10.975691039999999</v>
       </c>
       <c r="G61" s="1">
         <v>121</v>
       </c>
       <c r="H61" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I61" s="1">
+        <v>134</v>
+      </c>
+      <c r="J61" s="1">
         <v>88</v>
       </c>
-      <c r="J61" s="1">
-        <v>70</v>
-      </c>
       <c r="K61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>17</v>
@@ -3674,7 +3671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>15</v>
       </c>
@@ -3715,7 +3712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -3756,7 +3753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>31</v>
       </c>
@@ -3797,7 +3794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
@@ -3838,7 +3835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
@@ -3879,7 +3876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +3917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
@@ -4002,7 +3999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
@@ -4084,7 +4081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -4125,7 +4122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
@@ -4166,7 +4163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -4207,7 +4204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -4248,7 +4245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>32</v>
       </c>
@@ -4289,7 +4286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>32</v>
       </c>
@@ -4412,77 +4409,77 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B80" s="2">
-        <v>50</v>
+        <v>42.857142860000003</v>
       </c>
       <c r="C80" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D80" s="2">
-        <v>64.285714290000001</v>
+        <v>54.545454550000002</v>
       </c>
       <c r="E80" s="2">
-        <v>4.8801835640000002</v>
+        <v>6.9251953000000004</v>
       </c>
       <c r="F80" s="2">
-        <v>12.915887100000001</v>
+        <v>15.99445504</v>
       </c>
       <c r="G80" s="1">
         <v>126</v>
       </c>
       <c r="H80" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I80" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J80" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B81" s="2">
-        <v>57.142857139999997</v>
+        <v>48.412698409999997</v>
       </c>
       <c r="C81" s="2">
-        <v>78.260869569999997</v>
+        <v>68.539325840000004</v>
       </c>
       <c r="D81" s="2">
-        <v>66.055045870000001</v>
+        <v>56.744186050000003</v>
       </c>
       <c r="E81" s="2">
-        <v>6.349987606</v>
+        <v>6.6937061570000003</v>
       </c>
       <c r="F81" s="2">
-        <v>14.576358709999999</v>
+        <v>15.686442939999999</v>
       </c>
       <c r="G81" s="1">
         <v>126</v>
       </c>
       <c r="H81" s="1">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I81" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J81" s="1">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K81" s="1">
         <v>2</v>
@@ -4491,42 +4488,42 @@
         <v>24</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B82" s="2">
-        <v>52.380952379999997</v>
+        <v>57.142857139999997</v>
       </c>
       <c r="C82" s="2">
-        <v>61.682242989999999</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="D82" s="2">
-        <v>56.652360520000002</v>
+        <v>66.055045870000001</v>
       </c>
       <c r="E82" s="2">
-        <v>8.8076215789999992</v>
+        <v>6.349987606</v>
       </c>
       <c r="F82" s="2">
-        <v>20.8445073</v>
+        <v>14.576358709999999</v>
       </c>
       <c r="G82" s="1">
         <v>126</v>
       </c>
       <c r="H82" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I82" s="1">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="J82" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K82" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>24</v>
@@ -4535,39 +4532,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B83" s="2">
-        <v>75.229357800000002</v>
+        <v>33.944954129999999</v>
       </c>
       <c r="C83" s="2">
-        <v>84.536082469999997</v>
+        <v>82.222222220000006</v>
       </c>
       <c r="D83" s="2">
-        <v>79.611650490000002</v>
+        <v>48.05194805</v>
       </c>
       <c r="E83" s="2">
-        <v>4.8755189149999998</v>
+        <v>8.1192036870000006</v>
       </c>
       <c r="F83" s="2">
-        <v>14.60489419</v>
+        <v>26.300569629999998</v>
       </c>
       <c r="G83" s="1">
         <v>109</v>
       </c>
       <c r="H83" s="1">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I83" s="1">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="J83" s="1">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="K83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>13</v>
@@ -4576,36 +4573,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B84" s="2">
-        <v>33.944954129999999</v>
+        <v>63.302752290000001</v>
       </c>
       <c r="C84" s="2">
-        <v>82.222222220000006</v>
+        <v>58.47457627</v>
       </c>
       <c r="D84" s="2">
-        <v>48.05194805</v>
+        <v>60.792951539999997</v>
       </c>
       <c r="E84" s="2">
-        <v>8.1192036870000006</v>
+        <v>8.2653241049999995</v>
       </c>
       <c r="F84" s="2">
-        <v>26.300569629999998</v>
+        <v>20.726481799999998</v>
       </c>
       <c r="G84" s="1">
         <v>109</v>
       </c>
       <c r="H84" s="1">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I84" s="1">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="J84" s="1">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
@@ -4614,83 +4611,83 @@
         <v>13</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B85" s="2">
-        <v>44.954128439999998</v>
+        <v>55.963302749999997</v>
       </c>
       <c r="C85" s="2">
-        <v>62.025316459999999</v>
+        <v>68.539325840000004</v>
       </c>
       <c r="D85" s="2">
-        <v>52.127659569999999</v>
+        <v>61.61616162</v>
       </c>
       <c r="E85" s="2">
-        <v>9.9683845499999997</v>
+        <v>7.6374698160000003</v>
       </c>
       <c r="F85" s="2">
-        <v>24.857920499999999</v>
+        <v>20.53166848</v>
       </c>
       <c r="G85" s="1">
         <v>109</v>
       </c>
       <c r="H85" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I85" s="1">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J85" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K85" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B86" s="2">
-        <v>68.595041320000007</v>
+        <v>66.942148759999995</v>
       </c>
       <c r="C86" s="2">
-        <v>88.297872339999998</v>
+        <v>71.68141593</v>
       </c>
       <c r="D86" s="2">
-        <v>77.20930233</v>
+        <v>69.230769230000007</v>
       </c>
       <c r="E86" s="2">
-        <v>4.5250899929999999</v>
+        <v>7.3240544500000002</v>
       </c>
       <c r="F86" s="2">
-        <v>9.6127108270000008</v>
+        <v>12.436762030000001</v>
       </c>
       <c r="G86" s="1">
         <v>121</v>
       </c>
       <c r="H86" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I86" s="1">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="J86" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>17</v>
@@ -4699,36 +4696,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B87" s="2">
-        <v>66.942148759999995</v>
+        <v>58.677685949999997</v>
       </c>
       <c r="C87" s="2">
-        <v>71.68141593</v>
+        <v>78.888888890000004</v>
       </c>
       <c r="D87" s="2">
-        <v>69.230769230000007</v>
+        <v>67.298578199999994</v>
       </c>
       <c r="E87" s="2">
-        <v>7.3240544500000002</v>
+        <v>7.5213886360000002</v>
       </c>
       <c r="F87" s="2">
-        <v>12.436762030000001</v>
+        <v>14.000068519999999</v>
       </c>
       <c r="G87" s="1">
         <v>121</v>
       </c>
       <c r="H87" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I87" s="1">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J87" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K87" s="1">
         <v>2</v>
@@ -4737,51 +4734,51 @@
         <v>17</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B88" s="2">
-        <v>47.933884300000003</v>
+        <v>61.98347107</v>
       </c>
       <c r="C88" s="2">
-        <v>66.666666669999998</v>
+        <v>77.319587630000001</v>
       </c>
       <c r="D88" s="2">
-        <v>55.76923077</v>
+        <v>68.807339450000001</v>
       </c>
       <c r="E88" s="2">
-        <v>9.3199846599999994</v>
+        <v>6.8971363849999996</v>
       </c>
       <c r="F88" s="2">
-        <v>16.30486028</v>
+        <v>13.360162989999999</v>
       </c>
       <c r="G88" s="1">
         <v>121</v>
       </c>
       <c r="H88" s="1">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I88" s="1">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J88" s="1">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>35</v>
       </c>
@@ -4822,7 +4819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>39</v>
       </c>
@@ -4863,9 +4860,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B91" s="2">
         <v>20.388349510000001</v>
@@ -4901,10 +4898,10 @@
         <v>18</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>33</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>35</v>
       </c>
@@ -4986,7 +4983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>36</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>35</v>
       </c>
@@ -5109,7 +5106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>36</v>
       </c>
@@ -5150,7 +5147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
@@ -5191,7 +5188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>35</v>
       </c>
@@ -5232,7 +5229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>36</v>
       </c>
@@ -5273,7 +5270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>33</v>
       </c>
@@ -5314,7 +5311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -5355,7 +5352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -5396,7 +5393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>33</v>
       </c>
@@ -5437,7 +5434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
@@ -5478,7 +5475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>36</v>
       </c>
@@ -5519,39 +5516,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B107" s="2">
-        <v>87.301587299999994</v>
+        <v>43.650793649999997</v>
       </c>
       <c r="C107" s="2">
-        <v>74.324324320000002</v>
+        <v>85.9375</v>
       </c>
       <c r="D107" s="2">
-        <v>80.291970800000001</v>
+        <v>57.89473684</v>
       </c>
       <c r="E107" s="2">
-        <v>4.2891896640000002</v>
+        <v>6.6957291190000001</v>
       </c>
       <c r="F107" s="2">
-        <v>8.9952381219999999</v>
+        <v>16.245266860000001</v>
       </c>
       <c r="G107" s="1">
         <v>126</v>
       </c>
       <c r="H107" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I107" s="1">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="J107" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="K107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>24</v>
@@ -5560,36 +5557,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B108" s="2">
-        <v>43.650793649999997</v>
+        <v>26.984126979999999</v>
       </c>
       <c r="C108" s="2">
-        <v>85.9375</v>
+        <v>85</v>
       </c>
       <c r="D108" s="2">
-        <v>57.89473684</v>
+        <v>40.963855420000002</v>
       </c>
       <c r="E108" s="2">
-        <v>6.6957291190000001</v>
+        <v>6.9993018859999996</v>
       </c>
       <c r="F108" s="2">
-        <v>16.245266860000001</v>
+        <v>19.214393449999999</v>
       </c>
       <c r="G108" s="1">
         <v>126</v>
       </c>
       <c r="H108" s="1">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I108" s="1">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J108" s="1">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K108" s="1">
         <v>2</v>
@@ -5598,162 +5595,162 @@
         <v>24</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B109" s="2">
-        <v>50</v>
+        <v>30.952380949999998</v>
       </c>
       <c r="C109" s="2">
-        <v>64.948453610000001</v>
+        <v>88.636363639999999</v>
       </c>
       <c r="D109" s="2">
-        <v>56.502242150000001</v>
+        <v>45.882352939999997</v>
       </c>
       <c r="E109" s="2">
-        <v>8.6370659100000005</v>
+        <v>6.8410755219999997</v>
       </c>
       <c r="F109" s="2">
-        <v>19.062393620000002</v>
+        <v>19.89360061</v>
       </c>
       <c r="G109" s="1">
         <v>126</v>
       </c>
       <c r="H109" s="1">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I109" s="1">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="J109" s="1">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K109" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B110" s="2">
-        <v>71.559633030000001</v>
+        <v>43.119266060000001</v>
       </c>
       <c r="C110" s="2">
-        <v>78</v>
+        <v>62.666666669999998</v>
       </c>
       <c r="D110" s="2">
-        <v>74.641148329999993</v>
+        <v>51.086956520000001</v>
       </c>
       <c r="E110" s="2">
-        <v>5.0137144930000002</v>
+        <v>9.8565804890000006</v>
       </c>
       <c r="F110" s="2">
-        <v>14.208478919999999</v>
+        <v>26.070580270000001</v>
       </c>
       <c r="G110" s="1">
         <v>109</v>
       </c>
       <c r="H110" s="1">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I110" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J110" s="1">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="K110" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B111" s="2">
-        <v>63.302752290000001</v>
+        <v>41.284403670000003</v>
       </c>
       <c r="C111" s="2">
-        <v>58.47457627</v>
+        <v>67.164179099999998</v>
       </c>
       <c r="D111" s="2">
-        <v>60.792951539999997</v>
+        <v>51.136363639999999</v>
       </c>
       <c r="E111" s="2">
-        <v>8.2653241049999995</v>
+        <v>9.3530480970000003</v>
       </c>
       <c r="F111" s="2">
-        <v>20.726481799999998</v>
+        <v>24.626063080000002</v>
       </c>
       <c r="G111" s="1">
         <v>109</v>
       </c>
       <c r="H111" s="1">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I111" s="1">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="J111" s="1">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="K111" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B112" s="2">
-        <v>43.119266060000001</v>
+        <v>39.449541279999998</v>
       </c>
       <c r="C112" s="2">
-        <v>71.212121210000006</v>
+        <v>66.153846150000007</v>
       </c>
       <c r="D112" s="2">
-        <v>53.714285709999999</v>
+        <v>49.425287359999999</v>
       </c>
       <c r="E112" s="2">
-        <v>9.4625580179999993</v>
+        <v>9.6641297880000003</v>
       </c>
       <c r="F112" s="2">
-        <v>25.234960789999999</v>
+        <v>27.09964579</v>
       </c>
       <c r="G112" s="1">
         <v>109</v>
       </c>
       <c r="H112" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I112" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J112" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K112" s="1">
         <v>3</v>
@@ -5762,121 +5759,121 @@
         <v>13</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B113" s="2">
-        <v>84.297520660000004</v>
+        <v>64.462809919999998</v>
       </c>
       <c r="C113" s="2">
-        <v>70.833333330000002</v>
+        <v>59.090909089999997</v>
       </c>
       <c r="D113" s="2">
-        <v>76.981132079999995</v>
+        <v>61.66007905</v>
       </c>
       <c r="E113" s="2">
-        <v>4.8226745429999998</v>
+        <v>10.4096572</v>
       </c>
       <c r="F113" s="2">
-        <v>9.1679357170000007</v>
+        <v>15.399214600000001</v>
       </c>
       <c r="G113" s="1">
         <v>121</v>
       </c>
       <c r="H113" s="1">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I113" s="1">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J113" s="1">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="K113" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B114" s="2">
-        <v>58.677685949999997</v>
+        <v>30.578512400000001</v>
       </c>
       <c r="C114" s="2">
-        <v>78.888888890000004</v>
+        <v>94.871794870000002</v>
       </c>
       <c r="D114" s="2">
-        <v>67.298578199999994</v>
+        <v>46.25</v>
       </c>
       <c r="E114" s="2">
-        <v>7.5213886360000002</v>
+        <v>9.3500369439999993</v>
       </c>
       <c r="F114" s="2">
-        <v>14.000068519999999</v>
+        <v>20.899671089999998</v>
       </c>
       <c r="G114" s="1">
         <v>121</v>
       </c>
       <c r="H114" s="1">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I114" s="1">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="J114" s="1">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="K114" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B115" s="2">
-        <v>46.280991739999997</v>
+        <v>57.851239669999998</v>
       </c>
       <c r="C115" s="2">
-        <v>87.5</v>
+        <v>79.545454550000002</v>
       </c>
       <c r="D115" s="2">
-        <v>60.540540540000002</v>
+        <v>66.985645930000004</v>
       </c>
       <c r="E115" s="2">
-        <v>9.2064124930000002</v>
+        <v>9.4139610289999993</v>
       </c>
       <c r="F115" s="2">
-        <v>17.97589048</v>
+        <v>14.178018160000001</v>
       </c>
       <c r="G115" s="1">
         <v>121</v>
       </c>
       <c r="H115" s="1">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I115" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="J115" s="1">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K115" s="1">
         <v>3</v>
@@ -5885,12 +5882,12 @@
         <v>17</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B116" s="2">
         <v>25.242718450000002</v>
@@ -5929,7 +5926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -5970,7 +5967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>32</v>
       </c>
@@ -6011,7 +6008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>37</v>
       </c>
@@ -6052,7 +6049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>39</v>
       </c>
@@ -6093,7 +6090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>40</v>
       </c>
@@ -6134,7 +6131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>37</v>
       </c>
@@ -6175,7 +6172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>39</v>
       </c>
@@ -6216,7 +6213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>40</v>
       </c>
@@ -6257,7 +6254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>37</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>39</v>
       </c>
@@ -6339,7 +6336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>40</v>
       </c>
@@ -6380,7 +6377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>37</v>
       </c>
@@ -6421,7 +6418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>39</v>
       </c>
@@ -6462,7 +6459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>40</v>
       </c>
@@ -6503,7 +6500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>37</v>
       </c>
@@ -6544,7 +6541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>39</v>
       </c>
@@ -6585,7 +6582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>40</v>
       </c>
@@ -6626,118 +6623,118 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B134" s="2">
-        <v>76.984126979999999</v>
+        <v>40.47619048</v>
       </c>
       <c r="C134" s="2">
-        <v>80.833333330000002</v>
+        <v>69.863013699999996</v>
       </c>
       <c r="D134" s="2">
-        <v>78.861788619999999</v>
+        <v>51.25628141</v>
       </c>
       <c r="E134" s="2">
-        <v>4.1637488530000004</v>
+        <v>8.8850489320000001</v>
       </c>
       <c r="F134" s="2">
-        <v>9.0495233529999997</v>
+        <v>19.221904049999999</v>
       </c>
       <c r="G134" s="1">
         <v>126</v>
       </c>
       <c r="H134" s="1">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I134" s="1">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="J134" s="1">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="K134" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B135" s="2">
-        <v>26.984126979999999</v>
+        <v>32.539682540000001</v>
       </c>
       <c r="C135" s="2">
-        <v>85</v>
+        <v>68.333333330000002</v>
       </c>
       <c r="D135" s="2">
-        <v>40.963855420000002</v>
+        <v>44.086021510000002</v>
       </c>
       <c r="E135" s="2">
-        <v>6.9993018859999996</v>
+        <v>8.5763203669999992</v>
       </c>
       <c r="F135" s="2">
-        <v>19.214393449999999</v>
+        <v>21.491817820000001</v>
       </c>
       <c r="G135" s="1">
         <v>126</v>
       </c>
       <c r="H135" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I135" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J135" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K135" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B136" s="2">
-        <v>26.190476189999998</v>
+        <v>52.380952379999997</v>
       </c>
       <c r="C136" s="2">
-        <v>89.189189189999993</v>
+        <v>61.682242989999999</v>
       </c>
       <c r="D136" s="2">
-        <v>40.490797550000003</v>
+        <v>56.652360520000002</v>
       </c>
       <c r="E136" s="2">
-        <v>9.0705742100000002</v>
+        <v>8.8076215789999992</v>
       </c>
       <c r="F136" s="2">
-        <v>23.732765780000001</v>
+        <v>20.8445073</v>
       </c>
       <c r="G136" s="1">
         <v>126</v>
       </c>
       <c r="H136" s="1">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I136" s="1">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="J136" s="1">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="K136" s="1">
         <v>3</v>
@@ -6746,94 +6743,94 @@
         <v>24</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B137" s="2">
-        <v>82.568807340000006</v>
+        <v>44.954128439999998</v>
       </c>
       <c r="C137" s="2">
-        <v>76.92307692</v>
+        <v>62.025316459999999</v>
       </c>
       <c r="D137" s="2">
-        <v>79.646017700000002</v>
+        <v>52.127659569999999</v>
       </c>
       <c r="E137" s="2">
-        <v>4.8301917760000004</v>
+        <v>9.9683845499999997</v>
       </c>
       <c r="F137" s="2">
-        <v>13.10317184</v>
+        <v>24.857920499999999</v>
       </c>
       <c r="G137" s="1">
         <v>109</v>
       </c>
       <c r="H137" s="1">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I137" s="1">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="J137" s="1">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="K137" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B138" s="2">
-        <v>55.963302749999997</v>
+        <v>43.119266060000001</v>
       </c>
       <c r="C138" s="2">
-        <v>68.539325840000004</v>
+        <v>71.212121210000006</v>
       </c>
       <c r="D138" s="2">
-        <v>61.61616162</v>
+        <v>53.714285709999999</v>
       </c>
       <c r="E138" s="2">
-        <v>7.6374698160000003</v>
+        <v>9.4625580179999993</v>
       </c>
       <c r="F138" s="2">
-        <v>20.53166848</v>
+        <v>25.234960789999999</v>
       </c>
       <c r="G138" s="1">
         <v>109</v>
       </c>
       <c r="H138" s="1">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I138" s="1">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="J138" s="1">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K138" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B139" s="2">
         <v>30.275229360000001</v>
@@ -6869,94 +6866,94 @@
         <v>13</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B140" s="2">
-        <v>74.380165289999994</v>
+        <v>47.933884300000003</v>
       </c>
       <c r="C140" s="2">
-        <v>84.112149529999996</v>
+        <v>66.666666669999998</v>
       </c>
       <c r="D140" s="2">
-        <v>78.947368420000004</v>
+        <v>55.76923077</v>
       </c>
       <c r="E140" s="2">
-        <v>4.2932352140000001</v>
+        <v>9.3199846599999994</v>
       </c>
       <c r="F140" s="2">
-        <v>8.3813226140000001</v>
+        <v>16.30486028</v>
       </c>
       <c r="G140" s="1">
         <v>121</v>
       </c>
       <c r="H140" s="1">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I140" s="1">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="J140" s="1">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="K140" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B141" s="2">
-        <v>61.98347107</v>
+        <v>46.280991739999997</v>
       </c>
       <c r="C141" s="2">
-        <v>77.319587630000001</v>
+        <v>87.5</v>
       </c>
       <c r="D141" s="2">
-        <v>68.807339450000001</v>
+        <v>60.540540540000002</v>
       </c>
       <c r="E141" s="2">
-        <v>6.8971363849999996</v>
+        <v>9.2064124930000002</v>
       </c>
       <c r="F141" s="2">
-        <v>13.360162989999999</v>
+        <v>17.97589048</v>
       </c>
       <c r="G141" s="1">
         <v>121</v>
       </c>
       <c r="H141" s="1">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I141" s="1">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="J141" s="1">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B142" s="2">
         <v>42.975206610000001</v>
@@ -6992,10 +6989,10 @@
         <v>17</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
@@ -7036,7 +7033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>40</v>
       </c>
@@ -7077,9 +7074,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B145" s="2">
         <v>27.184466019999999</v>
@@ -7115,12 +7112,12 @@
         <v>18</v>
       </c>
       <c r="M145" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B146" s="2">
         <v>71.333333330000002</v>
@@ -7156,12 +7153,12 @@
         <v>19</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B147" s="2">
         <v>59.333333330000002</v>
@@ -7197,12 +7194,12 @@
         <v>19</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B148" s="2">
         <v>41.333333330000002</v>
@@ -7238,12 +7235,12 @@
         <v>19</v>
       </c>
       <c r="M148" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B149" s="2">
         <v>63.07692308</v>
@@ -7279,12 +7276,12 @@
         <v>20</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B150" s="2">
         <v>39.23076923</v>
@@ -7320,12 +7317,12 @@
         <v>20</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B151" s="2">
         <v>53.84615385</v>
@@ -7361,12 +7358,12 @@
         <v>20</v>
       </c>
       <c r="M151" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B152" s="2">
         <v>62.121212120000003</v>
@@ -7402,12 +7399,12 @@
         <v>21</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B153" s="2">
         <v>31.81818182</v>
@@ -7443,12 +7440,12 @@
         <v>21</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B154" s="2">
         <v>19.6969697</v>
@@ -7484,12 +7481,12 @@
         <v>21</v>
       </c>
       <c r="M154" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B155" s="2">
         <v>60.563380279999997</v>
@@ -7525,12 +7522,12 @@
         <v>22</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B156" s="2">
         <v>70.422535210000007</v>
@@ -7566,12 +7563,12 @@
         <v>22</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B157" s="2">
         <v>49.295774649999998</v>
@@ -7607,12 +7604,12 @@
         <v>22</v>
       </c>
       <c r="M157" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B158" s="2">
         <v>71.739130430000003</v>
@@ -7648,12 +7645,12 @@
         <v>23</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B159" s="2">
         <v>55.79710145</v>
@@ -7689,12 +7686,12 @@
         <v>23</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B160" s="2">
         <v>22.463768120000001</v>
@@ -7730,94 +7727,94 @@
         <v>23</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B161" s="2">
-        <v>69.047619049999994</v>
+        <v>50</v>
       </c>
       <c r="C161" s="2">
-        <v>89.69072165</v>
+        <v>64.948453610000001</v>
       </c>
       <c r="D161" s="2">
-        <v>78.026905830000004</v>
+        <v>56.502242150000001</v>
       </c>
       <c r="E161" s="2">
-        <v>3.8166286600000001</v>
+        <v>8.6370659100000005</v>
       </c>
       <c r="F161" s="2">
-        <v>9.9408900179999993</v>
+        <v>19.062393620000002</v>
       </c>
       <c r="G161" s="1">
         <v>126</v>
       </c>
       <c r="H161" s="1">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I161" s="1">
         <v>97</v>
       </c>
       <c r="J161" s="1">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="K161" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B162" s="2">
-        <v>30.952380949999998</v>
+        <v>26.190476189999998</v>
       </c>
       <c r="C162" s="2">
-        <v>88.636363639999999</v>
+        <v>89.189189189999993</v>
       </c>
       <c r="D162" s="2">
-        <v>45.882352939999997</v>
+        <v>40.490797550000003</v>
       </c>
       <c r="E162" s="2">
-        <v>6.8410755219999997</v>
+        <v>9.0705742100000002</v>
       </c>
       <c r="F162" s="2">
-        <v>19.89360061</v>
+        <v>23.732765780000001</v>
       </c>
       <c r="G162" s="1">
         <v>126</v>
       </c>
       <c r="H162" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I162" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J162" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K162" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B163" s="2">
         <v>50.793650790000001</v>
@@ -7828,7 +7825,7 @@
       <c r="D163" s="2">
         <v>55.17241379</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="2">
         <v>8.8929591190000004</v>
       </c>
       <c r="F163" s="2">
@@ -7853,17 +7850,17 @@
         <v>24</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M163" xr:uid="{DA3BE8C8-614F-43F7-806C-3B119E555EEB}">
     <filterColumn colId="11">
       <filters>
-        <filter val="幸手"/>
+        <filter val="世田谷区世田谷"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:M145">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M139">
       <sortCondition ref="K1:K163"/>
     </sortState>
   </autoFilter>
